--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{687583E5-48E0-42CD-817E-955FF27BA657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA1E19-1C39-4A6F-A891-C3B841BE3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIP" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -217,13 +220,16 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>COP 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +261,12 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Bierstadt"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -647,20 +659,20 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="40.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="52.5" customHeight="1">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -671,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.5" customHeight="1">
+    <row r="2" spans="1:9" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -688,9 +700,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -709,9 +721,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -726,9 +738,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1">
+    <row r="5" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -743,9 +755,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1">
+    <row r="6" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -760,9 +772,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1">
+    <row r="7" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -777,9 +789,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+    <row r="8" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -794,7 +806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,7 +823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1">
+    <row r="10" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1">
+    <row r="11" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -845,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1">
+    <row r="12" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1">
+    <row r="13" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -879,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1">
+    <row r="14" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -896,7 +908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1">
+    <row r="15" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -913,7 +925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1">
+    <row r="16" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -930,7 +942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -947,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -964,7 +976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -981,7 +993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1019,6 +1031,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">
     <sortCondition ref="A3:A21"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA1E19-1C39-4A6F-A891-C3B841BE3AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C34263-57B0-40FD-9514-B89EFDFA6068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Digital Display Phase 1</t>
   </si>
   <si>
-    <t>50% approved, 50% in review, working on Phase 2</t>
-  </si>
-  <si>
     <t>VTAC, PMAX banners</t>
   </si>
   <si>
@@ -223,6 +220,21 @@
   </si>
   <si>
     <t>COP 2026</t>
+  </si>
+  <si>
+    <t>t-shirt size</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -669,7 +681,8 @@
     <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="78.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -699,10 +712,13 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -716,14 +732,16 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -737,10 +755,13 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -752,32 +773,38 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -786,24 +813,30 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -811,16 +844,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -828,16 +864,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -845,16 +884,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -862,109 +904,127 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
+      <c r="F13" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -973,49 +1033,58 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -1024,7 +1093,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C34263-57B0-40FD-9514-B89EFDFA6068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AE85E-807A-4FDA-83E3-432E259CC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>COP 2026</t>
+  </si>
+  <si>
+    <t>COP 2027</t>
+  </si>
+  <si>
+    <t>COP 2028</t>
   </si>
   <si>
     <t>t-shirt size</t>
@@ -671,14 +677,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="78.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
@@ -713,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -733,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -756,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -773,10 +779,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -796,12 +802,12 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -816,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -836,7 +842,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -856,7 +862,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -896,12 +902,12 @@
         <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -916,7 +922,7 @@
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -936,7 +942,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -956,7 +962,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -976,7 +982,7 @@
         <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,7 +1002,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1016,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1036,7 +1042,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1056,7 +1062,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1076,7 +1082,7 @@
         <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,7 +1102,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0AE85E-807A-4FDA-83E3-432E259CC1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EA3D9-1FCE-4E93-A459-3DE6185C6A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>COP 2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">COP mailout </t>
   </si>
   <si>
@@ -222,12 +219,6 @@
     <t>COP 2026</t>
   </si>
   <si>
-    <t>COP 2027</t>
-  </si>
-  <si>
-    <t>COP 2028</t>
-  </si>
-  <si>
     <t>t-shirt size</t>
   </si>
   <si>
@@ -240,7 +231,7 @@
     <t>L</t>
   </si>
   <si>
-    <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing</t>
+    <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
 </sst>
 </file>
@@ -677,7 +668,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -719,27 +710,27 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -747,362 +738,362 @@
     </row>
     <row r="4" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EA3D9-1FCE-4E93-A459-3DE6185C6A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66F923-A826-49F7-BA31-D069B6C3EE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
+  </si>
+  <si>
+    <t>MED-HIGH</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +674,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -692,6 +698,9 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66F923-A826-49F7-BA31-D069B6C3EE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101074C1-512C-478B-B4E0-8E6E5C54D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>MED-HIGH</t>
+  </si>
+  <si>
+    <t>Danh project</t>
+  </si>
+  <si>
+    <t>Make this damn thing</t>
+  </si>
+  <si>
+    <t>Hung</t>
   </si>
 </sst>
 </file>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1105,6 +1114,26 @@
         <v>62</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">
     <sortCondition ref="A3:A21"/>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2EA3D9-1FCE-4E93-A459-3DE6185C6A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101074C1-512C-478B-B4E0-8E6E5C54D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
+  </si>
+  <si>
+    <t>MED-HIGH</t>
+  </si>
+  <si>
+    <t>Danh project</t>
+  </si>
+  <si>
+    <t>Make this damn thing</t>
+  </si>
+  <si>
+    <t>Hung</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -692,6 +707,9 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1093,6 +1111,26 @@
         <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101074C1-512C-478B-B4E0-8E6E5C54D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D2535-57AA-42D9-9358-75515D16C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -219,18 +219,6 @@
     <t>COP 2026</t>
   </si>
   <si>
-    <t>t-shirt size</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
@@ -244,6 +232,15 @@
   </si>
   <si>
     <t>Hung</t>
+  </si>
+  <si>
+    <t>RMIT final report</t>
+  </si>
+  <si>
+    <t>Don't even know what I'm doing</t>
+  </si>
+  <si>
+    <t>Thao</t>
   </si>
 </sst>
 </file>
@@ -680,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -693,11 +690,10 @@
     <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="78.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -708,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -727,11 +723,8 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -747,14 +740,11 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -770,11 +760,8 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -788,13 +775,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -810,11 +794,8 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -830,11 +811,8 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -850,11 +828,8 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -870,11 +845,8 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -890,11 +862,8 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -910,11 +879,8 @@
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -930,11 +896,8 @@
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -950,11 +913,8 @@
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -970,11 +930,8 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -990,11 +947,8 @@
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1010,11 +964,8 @@
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1030,11 +981,8 @@
       <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -1050,11 +998,8 @@
       <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1070,11 +1015,8 @@
       <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1090,11 +1032,8 @@
       <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1110,19 +1049,16 @@
       <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1130,8 +1066,19 @@
       <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>62</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D2535-57AA-42D9-9358-75515D16C314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF4E65-C677-4613-9BEC-FDB39BE05D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Thao</t>
+  </si>
+  <si>
+    <t>COP 2025</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -814,7 +817,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -848,7 +851,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -882,7 +885,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF4E65-C677-4613-9BEC-FDB39BE05D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06B9C7-4D0D-4865-B779-B112BB1BC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -223,24 +223,6 @@
   </si>
   <si>
     <t>MED-HIGH</t>
-  </si>
-  <si>
-    <t>Danh project</t>
-  </si>
-  <si>
-    <t>Make this damn thing</t>
-  </si>
-  <si>
-    <t>Hung</t>
-  </si>
-  <si>
-    <t>RMIT final report</t>
-  </si>
-  <si>
-    <t>Don't even know what I'm doing</t>
-  </si>
-  <si>
-    <t>Thao</t>
   </si>
   <si>
     <t>COP 2025</t>
@@ -683,7 +665,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -817,7 +799,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -834,7 +816,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -851,7 +833,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -868,7 +850,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -885,7 +867,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -1054,35 +1036,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06B9C7-4D0D-4865-B779-B112BB1BC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA241E0-8951-46CF-92BC-8513F4E7768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>COP 2025</t>
+  </si>
+  <si>
+    <t>RMIT building rennovation</t>
+  </si>
+  <si>
+    <t>Demolish</t>
+  </si>
+  <si>
+    <t>Not sure</t>
   </si>
 </sst>
 </file>
@@ -665,7 +674,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1045,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA241E0-8951-46CF-92BC-8513F4E7768D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAD6CC-2C22-40C3-B0DA-C0ED7AA4FA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
-    <t>MED-HIGH</t>
-  </si>
-  <si>
     <t>COP 2025</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Not sure</t>
+  </si>
+  <si>
+    <t>Med-high</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>56</v>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAD6CC-2C22-40C3-B0DA-C0ED7AA4FA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4967AE8-5E29-4098-9494-45FB813B49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Med-high</t>
+  </si>
+  <si>
+    <t>Hung</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1055,7 @@
         <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>65</v>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4967AE8-5E29-4098-9494-45FB813B49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84457E-5A26-4ED5-812C-6B113EAEC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>GCMC Design team weeky WIP</t>
   </si>
   <si>
-    <t>Last updated 1 Nov, 14:00</t>
-  </si>
-  <si>
     <t>Campaign (group)</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>Hung</t>
+  </si>
+  <si>
+    <t>Last updated 1 Nov, 15:00</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -698,44 +698,44 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -743,325 +743,325 @@
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84457E-5A26-4ED5-812C-6B113EAEC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345AF2B-7B8C-4860-A1A4-C1692566974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -222,19 +222,7 @@
     <t>COP 2025</t>
   </si>
   <si>
-    <t>RMIT building rennovation</t>
-  </si>
-  <si>
-    <t>Demolish</t>
-  </si>
-  <si>
-    <t>Not sure</t>
-  </si>
-  <si>
     <t>Med-high</t>
-  </si>
-  <si>
-    <t>Hung</t>
   </si>
   <si>
     <t>Last updated 1 Nov, 15:00</t>
@@ -677,7 +665,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -698,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1048,21 +1036,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\HTML email\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101074C1-512C-478B-B4E0-8E6E5C54D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345AF2B-7B8C-4860-A1A4-C1692566974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -42,9 +42,6 @@
     <t>GCMC Design team weeky WIP</t>
   </si>
   <si>
-    <t>Last updated 1 Nov, 14:00</t>
-  </si>
-  <si>
     <t>Campaign (group)</t>
   </si>
   <si>
@@ -219,31 +216,16 @@
     <t>COP 2026</t>
   </si>
   <si>
-    <t>t-shirt size</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
-    <t>MED-HIGH</t>
-  </si>
-  <si>
-    <t>Danh project</t>
-  </si>
-  <si>
-    <t>Make this damn thing</t>
-  </si>
-  <si>
-    <t>Hung</t>
+    <t>COP 2025</t>
+  </si>
+  <si>
+    <t>Med-high</t>
+  </si>
+  <si>
+    <t>Last updated 1 Nov, 15:00</t>
   </si>
 </sst>
 </file>
@@ -680,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -693,11 +675,10 @@
     <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="78.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -705,434 +686,360 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E21">

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E345AF2B-7B8C-4860-A1A4-C1692566974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5ED20-DB83-49D0-9F05-A85E0901891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -57,48 +57,24 @@
     <t>Details</t>
   </si>
   <si>
-    <t xml:space="preserve">COP mailout </t>
-  </si>
-  <si>
     <t>Joanne</t>
   </si>
   <si>
     <t>In progress</t>
   </si>
   <si>
-    <t>due 30 Oct</t>
-  </si>
-  <si>
-    <t>Short-form videos x4</t>
-  </si>
-  <si>
     <t>Eden</t>
   </si>
   <si>
     <t>In Review</t>
   </si>
   <si>
-    <t>4 videos all done, sent FA</t>
-  </si>
-  <si>
-    <t>Digital Display Phase 1</t>
-  </si>
-  <si>
-    <t>VTAC, PMAX banners</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>WF/FA sent</t>
   </si>
   <si>
-    <t>Tiktok video refresh</t>
-  </si>
-  <si>
-    <t>WIP, due Nov 7</t>
-  </si>
-  <si>
     <t>COP animation promo asset</t>
   </si>
   <si>
@@ -211,12 +187,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>COP 2026</t>
-  </si>
-  <si>
-    <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
     <t>COP 2025</t>
@@ -665,7 +635,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A7" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -686,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,329 +680,255 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5ED20-DB83-49D0-9F05-A85E0901891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBB88D-9CB8-4D40-BDA0-45CA92DAC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -57,24 +57,48 @@
     <t>Details</t>
   </si>
   <si>
+    <t xml:space="preserve">COP mailout </t>
+  </si>
+  <si>
     <t>Joanne</t>
   </si>
   <si>
     <t>In progress</t>
   </si>
   <si>
+    <t>due 30 Oct</t>
+  </si>
+  <si>
+    <t>Short-form videos x4</t>
+  </si>
+  <si>
     <t>Eden</t>
   </si>
   <si>
     <t>In Review</t>
   </si>
   <si>
+    <t>4 videos all done, sent FA</t>
+  </si>
+  <si>
+    <t>Digital Display Phase 1</t>
+  </si>
+  <si>
+    <t>VTAC, PMAX banners</t>
+  </si>
+  <si>
     <t>Done</t>
   </si>
   <si>
     <t>WF/FA sent</t>
   </si>
   <si>
+    <t>Tiktok video refresh</t>
+  </si>
+  <si>
+    <t>WIP, due Nov 7</t>
+  </si>
+  <si>
     <t>COP animation promo asset</t>
   </si>
   <si>
@@ -187,6 +211,12 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>COP 2026</t>
+  </si>
+  <si>
+    <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
     <t>COP 2025</t>
@@ -635,7 +665,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A3:XFD7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -656,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -680,255 +710,329 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBB88D-9CB8-4D40-BDA0-45CA92DAC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA31C6-4F7D-420D-AB06-22F992D69AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Last updated 1 Nov, 15:00</t>
+  </si>
+  <si>
+    <t>Publications 2028</t>
+  </si>
+  <si>
+    <t>Duc</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1042,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA31C6-4F7D-420D-AB06-22F992D69AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A249E-CDCE-4D38-8149-7DE2E1BA6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
-  </si>
-  <si>
-    <t>COP 2025</t>
   </si>
   <si>
     <t>Med-high</t>
@@ -278,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +294,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -325,7 +328,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -691,11 +697,11 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -805,7 +811,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -822,7 +828,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -839,7 +845,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -856,7 +862,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -873,7 +879,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -1043,13 +1049,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBB88D-9CB8-4D40-BDA0-45CA92DAC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A249E-CDCE-4D38-8149-7DE2E1BA6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -219,13 +219,16 @@
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
   </si>
   <si>
-    <t>COP 2025</t>
-  </si>
-  <si>
     <t>Med-high</t>
   </si>
   <si>
     <t>Last updated 1 Nov, 15:00</t>
+  </si>
+  <si>
+    <t>Publications 2028</t>
+  </si>
+  <si>
+    <t>Duc</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +294,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,7 +328,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -685,11 +697,11 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,7 +811,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -816,7 +828,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -833,7 +845,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -850,7 +862,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -867,7 +879,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -1036,7 +1048,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFBB88D-9CB8-4D40-BDA0-45CA92DAC2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D08C59-9443-4BDE-BC4A-EC8F2E2CD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>50% approved, 50% in review, working on Phase 2, this is also test how much the text is flowing. Normally this wouldn't be this long</t>
-  </si>
-  <si>
-    <t>COP 2025</t>
   </si>
   <si>
     <t>Med-high</t>
@@ -272,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +288,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,7 +322,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +671,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -685,11 +691,11 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,7 +805,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -816,7 +822,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -833,7 +839,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -867,7 +873,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D08C59-9443-4BDE-BC4A-EC8F2E2CD4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317E9AD-C4BA-42BD-AF40-81BBDE8812EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>Last updated 1 Nov, 15:00</t>
+  </si>
+  <si>
+    <t>Wedding Plan</t>
+  </si>
+  <si>
+    <t>We're on it</t>
+  </si>
+  <si>
+    <t>Ngan</t>
+  </si>
+  <si>
+    <t>Let's see how that goes</t>
   </si>
 </sst>
 </file>
@@ -671,7 +683,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1054,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>

--- a/data/wip.xlsx
+++ b/data/wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317E9AD-C4BA-42BD-AF40-81BBDE8812EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE6C3D-F162-4EE2-85BB-CCC0E7E85319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Week 45 (4-11 Nov 2025)</t>
   </si>
@@ -223,18 +223,6 @@
   </si>
   <si>
     <t>Last updated 1 Nov, 15:00</t>
-  </si>
-  <si>
-    <t>Wedding Plan</t>
-  </si>
-  <si>
-    <t>We're on it</t>
-  </si>
-  <si>
-    <t>Ngan</t>
-  </si>
-  <si>
-    <t>Let's see how that goes</t>
   </si>
 </sst>
 </file>
@@ -683,7 +671,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1054,21 +1042,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
